--- a/Python/Excel/doc/python.xlsx
+++ b/Python/Excel/doc/python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-12960" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Yunis000" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,1479 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>hahhhhhhh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+  <si>
+    <t>service_name</t>
+  </si>
+  <si>
+    <t>深圳阳光棕榈园</t>
+  </si>
+  <si>
+    <t>广州中海锦榕湾</t>
+  </si>
+  <si>
+    <t>成都中海龙湾半岛</t>
+  </si>
+  <si>
+    <t>济南中海奥龙观邸</t>
+  </si>
+  <si>
+    <t>苏州中海花园</t>
+  </si>
+  <si>
+    <t>西安中海国际社区观园二</t>
+  </si>
+  <si>
+    <t>天津御湖花园</t>
+  </si>
+  <si>
+    <t>北京紫玉苑</t>
+  </si>
+  <si>
+    <t>佛山千灯湖一号</t>
+  </si>
+  <si>
+    <t>合肥原山公馆</t>
+  </si>
+  <si>
+    <t>上海翡翠湖岸</t>
+  </si>
+  <si>
+    <t>西安中海国际社区御湖</t>
+  </si>
+  <si>
+    <t>杭州寰宇天下</t>
+  </si>
+  <si>
+    <t>深圳海阔天空管理处</t>
+  </si>
+  <si>
+    <t>深圳海滨广场</t>
+  </si>
+  <si>
+    <t>重庆国社江御</t>
+  </si>
+  <si>
+    <t>长春金域中央</t>
+  </si>
+  <si>
+    <t>沈阳中海城星座</t>
+  </si>
+  <si>
+    <t>上海中海馨园</t>
+  </si>
+  <si>
+    <t>杭州紫藤苑</t>
+  </si>
+  <si>
+    <t>济南中海熙岸东区</t>
+  </si>
+  <si>
+    <t>沈阳中海国社雍河</t>
+  </si>
+  <si>
+    <t>成都中海城南华府</t>
+  </si>
+  <si>
+    <t>大连中海紫御观邸</t>
+  </si>
+  <si>
+    <t>长春南湖1号</t>
+  </si>
+  <si>
+    <t>苏州星湖花园</t>
+  </si>
+  <si>
+    <t>苏州半岛花园</t>
+  </si>
+  <si>
+    <t>青岛中海国际社区一里城</t>
+  </si>
+  <si>
+    <t>青岛国社一里城二期</t>
+  </si>
+  <si>
+    <t>烟台银海熙岸</t>
+  </si>
+  <si>
+    <t>烟台国社璟园</t>
+  </si>
+  <si>
+    <t>北京风情苑</t>
+  </si>
+  <si>
+    <t>北京圣朝菲</t>
+  </si>
+  <si>
+    <t>北京紫鑫阁</t>
+  </si>
+  <si>
+    <t>北京香克林</t>
+  </si>
+  <si>
+    <t>广州云麓公馆</t>
+  </si>
+  <si>
+    <t>广州中海锦苑</t>
+  </si>
+  <si>
+    <t>珠海桃花源山庄</t>
+  </si>
+  <si>
+    <t>深圳阳光玫瑰园</t>
+  </si>
+  <si>
+    <t>深圳海连大厦</t>
+  </si>
+  <si>
+    <t>潍坊中建大观天下</t>
+  </si>
+  <si>
+    <t>南京万锦熙岸</t>
+  </si>
+  <si>
+    <t>广州中海观园</t>
+  </si>
+  <si>
+    <t>宁波东湖观邸</t>
+  </si>
+  <si>
+    <t>青岛国社朗园润园</t>
+  </si>
+  <si>
+    <t>烟台紫御公馆</t>
+  </si>
+  <si>
+    <t>西安中海紫御华府</t>
+  </si>
+  <si>
+    <t>苏州玉山雅苑</t>
+  </si>
+  <si>
+    <t>苏州熙岸花园</t>
+  </si>
+  <si>
+    <t>济南中海熙岸(西区)</t>
+  </si>
+  <si>
+    <t>济南御山华府</t>
+  </si>
+  <si>
+    <t>济南中海铂宫</t>
+  </si>
+  <si>
+    <t>重庆国社观园一</t>
+  </si>
+  <si>
+    <t>北京中海凯旋</t>
+  </si>
+  <si>
+    <t>北京中海紫金苑</t>
+  </si>
+  <si>
+    <t>北京中海枫涟山庄</t>
+  </si>
+  <si>
+    <t>北京中海馥园</t>
+  </si>
+  <si>
+    <t>北京中海九浩苑</t>
+  </si>
+  <si>
+    <t>北京光大名筑</t>
+  </si>
+  <si>
+    <t>北京光大西园</t>
+  </si>
+  <si>
+    <t>北京学院派</t>
+  </si>
+  <si>
+    <t>北京西晴公寓</t>
+  </si>
+  <si>
+    <t>北京光大花园</t>
+  </si>
+  <si>
+    <t>南京星际广场</t>
+  </si>
+  <si>
+    <t>南京凤凰花园</t>
+  </si>
+  <si>
+    <t>南京环宇城玺荟公寓</t>
+  </si>
+  <si>
+    <t>苏州胥江岸</t>
+  </si>
+  <si>
+    <t>佛山金沙湾西区</t>
+  </si>
+  <si>
+    <t>长春中海紫金苑</t>
+  </si>
+  <si>
+    <t>西安中海城</t>
+  </si>
+  <si>
+    <t>西安中海国际社区观园一</t>
+  </si>
+  <si>
+    <t>赣州中海东郡</t>
+  </si>
+  <si>
+    <t>合肥岭湖墅</t>
+  </si>
+  <si>
+    <t>沈阳中海国社都汇</t>
+  </si>
+  <si>
+    <t>济南紫御东郡</t>
+  </si>
+  <si>
+    <t>天津宁静家园</t>
+  </si>
+  <si>
+    <t>潍坊蔷薇溪谷</t>
+  </si>
+  <si>
+    <t>上海海悦</t>
+  </si>
+  <si>
+    <t>沈阳中海国社御河</t>
+  </si>
+  <si>
+    <t>沈阳中海国社明珠</t>
+  </si>
+  <si>
+    <t>沈阳中海和平之门青春志</t>
+  </si>
+  <si>
+    <t>上海中海瀛台</t>
+  </si>
+  <si>
+    <t>杭州金溪园</t>
+  </si>
+  <si>
+    <t>杭州篁外山庄</t>
+  </si>
+  <si>
+    <t>绍兴世纪康城</t>
+  </si>
+  <si>
+    <t>苏州玉景湾</t>
+  </si>
+  <si>
+    <t>沈阳中海国社雍河HOT</t>
+  </si>
+  <si>
+    <t>沈阳中海国社龙湾一期</t>
+  </si>
+  <si>
+    <t>沈阳中海国社龙湾二期</t>
+  </si>
+  <si>
+    <t>成都中海金沙府</t>
+  </si>
+  <si>
+    <t>成都中海国际社区二</t>
+  </si>
+  <si>
+    <t>成都中海翠屏湾</t>
+  </si>
+  <si>
+    <t>成都中海兰庭</t>
+  </si>
+  <si>
+    <t>成都中海九号公馆</t>
+  </si>
+  <si>
+    <t>重庆国社观园二</t>
+  </si>
+  <si>
+    <t>青岛临安府</t>
+  </si>
+  <si>
+    <t>青岛清江华府</t>
+  </si>
+  <si>
+    <t>重庆国社海悦府</t>
+  </si>
+  <si>
+    <t>青岛胶南中海熙岸</t>
+  </si>
+  <si>
+    <t>成都中海格林威治城</t>
+  </si>
+  <si>
+    <t>广州中海康城</t>
+  </si>
+  <si>
+    <t>长沙梅溪湖壹号一期</t>
+  </si>
+  <si>
+    <t>深圳中海丽苑</t>
+  </si>
+  <si>
+    <t>深圳中海锦城花园</t>
+  </si>
+  <si>
+    <t>深圳西岸华府南区</t>
+  </si>
+  <si>
+    <t>深圳西岸华府北区</t>
+  </si>
+  <si>
+    <t>深圳中海华庭</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 乌鲁木齐云鼎大观 </t>
+  </si>
+  <si>
+    <t>昆明学府花园</t>
+  </si>
+  <si>
+    <t>上海海华</t>
+  </si>
+  <si>
+    <t>天津北宁湾</t>
+  </si>
+  <si>
+    <t>天津宁宇家园</t>
+  </si>
+  <si>
+    <t>长春国际社区御峰管理处</t>
+  </si>
+  <si>
+    <t>长春国际社区碧林管理处</t>
+  </si>
+  <si>
+    <t>长春中海凯旋门管理处</t>
+  </si>
+  <si>
+    <t>长春净月华庭管理处</t>
+  </si>
+  <si>
+    <t>长春莱茵东郡管理处</t>
+  </si>
+  <si>
+    <t>长春凤凰熙岸管理处</t>
+  </si>
+  <si>
+    <t>长春蘭庭管理处</t>
+  </si>
+  <si>
+    <t>长春水岸春城管理处</t>
+  </si>
+  <si>
+    <t>长春寰宇天下(FH区)管理处</t>
+  </si>
+  <si>
+    <t>长春寰宇天下(DE区)管理处</t>
+  </si>
+  <si>
+    <t>长春水岸馨都管理处</t>
+  </si>
+  <si>
+    <t>长春寰宇天下(B区)管理处</t>
+  </si>
+  <si>
+    <t>长春寰宇天下(C区)管理处</t>
+  </si>
+  <si>
+    <t>长春国际社区橙郡管理处</t>
+  </si>
+  <si>
+    <t>长春国际社区碧林(别墅区)管理处</t>
+  </si>
+  <si>
+    <t>长春国际社区长滩管理处</t>
+  </si>
+  <si>
+    <t>长春中海国际广场管理处</t>
+  </si>
+  <si>
+    <t>长春中海紫御华府管理处</t>
+  </si>
+  <si>
+    <t>长春中海紫御华府第二管理处</t>
+  </si>
+  <si>
+    <t>长春中海紫御华府第三管理处</t>
+  </si>
+  <si>
+    <t>潍坊中建御景央邸</t>
+  </si>
+  <si>
+    <t>济南中海华山珑城城郡</t>
+  </si>
+  <si>
+    <t>济南中海华山珑城山湖一号</t>
+  </si>
+  <si>
+    <t>济南中海国际社区御峰官邸</t>
+  </si>
+  <si>
+    <t>济南中海华山珑城城湾</t>
+  </si>
+  <si>
+    <t>济南中海国际社区雍景郡</t>
+  </si>
+  <si>
+    <t>济南中海国际社区尚湖</t>
+  </si>
+  <si>
+    <t>济南中海天悦府</t>
+  </si>
+  <si>
+    <t>天津中海君禧华庭</t>
+  </si>
+  <si>
+    <t>西安中建尚城</t>
+  </si>
+  <si>
+    <t>长沙国社西区四期</t>
+  </si>
+  <si>
+    <t>宁波悦兴花苑</t>
+  </si>
+  <si>
+    <t>宁波雍城世家</t>
+  </si>
+  <si>
+    <t>赣州中海华府</t>
+  </si>
+  <si>
+    <t>上海中海瀛台二期</t>
+  </si>
+  <si>
+    <t>杭州钱塘山水湾</t>
+  </si>
+  <si>
+    <t>赣州中海铂悦公馆</t>
+  </si>
+  <si>
+    <t>上海中海海丽</t>
+  </si>
+  <si>
+    <t>上海中海御景熙岸</t>
+  </si>
+  <si>
+    <t>重庆紫御江山一</t>
+  </si>
+  <si>
+    <t>重庆紫御江山御湾·熙岸</t>
+  </si>
+  <si>
+    <t>重庆寰宇天下</t>
+  </si>
+  <si>
+    <t>重庆北滨1号</t>
+  </si>
+  <si>
+    <t>昆明环湖花园</t>
+  </si>
+  <si>
+    <t>苏州海悦花园北区管理处</t>
+  </si>
+  <si>
+    <t>苏州海悦花园南区管理处</t>
+  </si>
+  <si>
+    <t>苏州海悦馨园管理处</t>
+  </si>
+  <si>
+    <t>苏州凤凰胥岸花园管理处</t>
+  </si>
+  <si>
+    <t>南京塞纳丽舍西苑</t>
+  </si>
+  <si>
+    <t>吉林中海紫御江城管理处</t>
+  </si>
+  <si>
+    <t>扬州中海玺园管理处</t>
+  </si>
+  <si>
+    <t>佛山中海锦城国际花园</t>
+  </si>
+  <si>
+    <t>佛山中海万锦豪园</t>
+  </si>
+  <si>
+    <t>汕头中海花园</t>
+  </si>
+  <si>
+    <t>青岛银海一号</t>
+  </si>
+  <si>
+    <t>杭州西溪华府</t>
+  </si>
+  <si>
+    <t>青岛国社御城</t>
+  </si>
+  <si>
+    <t>南昌朝阳郡观园</t>
+  </si>
+  <si>
+    <t>桂林中海元居</t>
+  </si>
+  <si>
+    <t>兰州中海河山郡</t>
+  </si>
+  <si>
+    <t>盐城世纪公馆</t>
+  </si>
+  <si>
+    <t>深圳枫丹雅苑</t>
+  </si>
+  <si>
+    <t>西安中海华庭</t>
+  </si>
+  <si>
+    <t>深圳聚豪园</t>
+  </si>
+  <si>
+    <t>深圳中海日辉台</t>
+  </si>
+  <si>
+    <t>深圳海丽大厦</t>
+  </si>
+  <si>
+    <t>西安中海碧林湾</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天汇</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天朗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中建尚北家园 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京中建雅颂居 </t>
+  </si>
+  <si>
+    <t>北京中建红杉溪谷</t>
+  </si>
+  <si>
+    <t>北京中建梅兰嘉园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京中建新尚家园 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中建尚鑫家园 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中海御景春天 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中海苏黎世家 </t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天钻</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天悦</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天颂</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天喜</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天赋</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天冠</t>
+  </si>
+  <si>
+    <t>大连中海华庭</t>
+  </si>
+  <si>
+    <t>大连中海御湖熙谷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京中建国际港 </t>
+  </si>
+  <si>
+    <t>银川中海城</t>
+  </si>
+  <si>
+    <t>银川国际社区橙郡</t>
+  </si>
+  <si>
+    <t>青岛紫御观邸</t>
+  </si>
+  <si>
+    <t>宁波九唐华府</t>
+  </si>
+  <si>
+    <t>宁波阳光玫瑰苑</t>
+  </si>
+  <si>
+    <t>广州中海蓝湾</t>
+  </si>
+  <si>
+    <t>珠海滨河湾</t>
+  </si>
+  <si>
+    <t>成都中海名城管理处</t>
+  </si>
+  <si>
+    <t>成都中海城南一号管理处</t>
+  </si>
+  <si>
+    <t>汕头潮华雅居</t>
+  </si>
+  <si>
+    <t>苏州海悦花园中区</t>
+  </si>
+  <si>
+    <t>苏州海悦花园六区</t>
+  </si>
+  <si>
+    <t>汕头嘉顿小镇</t>
+  </si>
+  <si>
+    <t>汕头嘉顿西区</t>
+  </si>
+  <si>
+    <t>汕头潮阳中信华庭</t>
+  </si>
+  <si>
+    <t>汕头澄海中信华府</t>
+  </si>
+  <si>
+    <t>成都中海国际社区一</t>
+  </si>
+  <si>
+    <t>南宁雍翠峰</t>
+  </si>
+  <si>
+    <t>南宁御湖熙岸</t>
+  </si>
+  <si>
+    <t>南宁国际社区一区</t>
+  </si>
+  <si>
+    <t>南宁国际社区二区</t>
+  </si>
+  <si>
+    <t>济南华山珑城城央</t>
+  </si>
+  <si>
+    <t>天津滨海壹号</t>
+  </si>
+  <si>
+    <t>天津四信里管理处</t>
+  </si>
+  <si>
+    <t>沈阳中海城提香</t>
+  </si>
+  <si>
+    <t>吉林中海大厦项目组</t>
+  </si>
+  <si>
+    <t>吉林国社一区</t>
+  </si>
+  <si>
+    <t>上海中海悦府</t>
+  </si>
+  <si>
+    <t>南京塞纳丽舍东苑</t>
+  </si>
+  <si>
+    <t>上海寰宇名邸</t>
+  </si>
+  <si>
+    <t>上海中建府邸</t>
+  </si>
+  <si>
+    <t>南昌中海朝阳郡铂宫</t>
+  </si>
+  <si>
+    <t>广州光大一期</t>
+  </si>
+  <si>
+    <t>广州光大二期</t>
+  </si>
+  <si>
+    <t>广州光大三期</t>
+  </si>
+  <si>
+    <t>广州光大四期</t>
+  </si>
+  <si>
+    <t>南京国际社区</t>
+  </si>
+  <si>
+    <t>佛山中海寰宇天下</t>
+  </si>
+  <si>
+    <t>佛山中海文华熙岸</t>
+  </si>
+  <si>
+    <t>佛山中海金沙里</t>
+  </si>
+  <si>
+    <t>佛山中海万锦熙岸</t>
+  </si>
+  <si>
+    <t>佛山中海锦苑</t>
+  </si>
+  <si>
+    <t>西安中建开元壹号</t>
+  </si>
+  <si>
+    <t>西安中海开元壹号</t>
+  </si>
+  <si>
+    <t>西安中海国际社区熙岸</t>
+  </si>
+  <si>
+    <t>西安中海国际社区东郡</t>
+  </si>
+  <si>
+    <t>佛山中海万锦东苑</t>
+  </si>
+  <si>
+    <t>苏州中海双湾花园管理处</t>
+  </si>
+  <si>
+    <t>苏州独墅岛花园管理处</t>
+  </si>
+  <si>
+    <t>北京安德鲁斯</t>
+  </si>
+  <si>
+    <t>北京海洋花园</t>
+  </si>
+  <si>
+    <t>北京惠通苑</t>
+  </si>
+  <si>
+    <t>呼市中海锦绣城</t>
+  </si>
+  <si>
+    <t>东莞凯旋公馆管理处</t>
+  </si>
+  <si>
+    <t>惠州水岸城四期管理处</t>
+  </si>
+  <si>
+    <t>重庆国社观邸</t>
+  </si>
+  <si>
+    <t>宁波国际社区一期</t>
+  </si>
+  <si>
+    <t>宁波国际社区二期</t>
+  </si>
+  <si>
+    <t>宁波国际社区三四期</t>
+  </si>
+  <si>
+    <t>宁波国际社区五六期</t>
+  </si>
+  <si>
+    <t>银川中海国际社区连湖花园二区</t>
+  </si>
+  <si>
+    <t>惠州凯旋城四期管理处</t>
+  </si>
+  <si>
+    <t>银川中海国际社区熙岸</t>
+  </si>
+  <si>
+    <t>深圳月朗苑</t>
+  </si>
+  <si>
+    <t>深圳怡美山庄</t>
+  </si>
+  <si>
+    <t>深圳大山地</t>
+  </si>
+  <si>
+    <t>南昌中海朝阳郡熙岸</t>
+  </si>
+  <si>
+    <t>汕头公安大院</t>
+  </si>
+  <si>
+    <t>东莞森林湖管理处</t>
+  </si>
+  <si>
+    <t>深圳香蜜湖一号</t>
+  </si>
+  <si>
+    <t>兰州中海凯旋门</t>
+  </si>
+  <si>
+    <t>南京中建大厦</t>
+  </si>
+  <si>
+    <t>中山锦珹花园</t>
+  </si>
+  <si>
+    <t>中山龙湾花园</t>
+  </si>
+  <si>
+    <t>中山翠林兰溪园</t>
+  </si>
+  <si>
+    <t>呼市中海紫御东郡</t>
+  </si>
+  <si>
+    <t>沈阳中海城蓝堡</t>
+  </si>
+  <si>
+    <t>沈阳中海康城一期</t>
+  </si>
+  <si>
+    <t>大连中海凤凰熙岸</t>
+  </si>
+  <si>
+    <t>吉林国社一区二</t>
+  </si>
+  <si>
+    <t>成都中海常春藤</t>
+  </si>
+  <si>
+    <t>成都中建桐梓林壹号</t>
+  </si>
+  <si>
+    <t>成都中海锦城一期</t>
+  </si>
+  <si>
+    <t>成都中海锦城二期</t>
+  </si>
+  <si>
+    <t>重庆阅江阁 峰墅</t>
+  </si>
+  <si>
+    <t>重庆黎香湖</t>
+  </si>
+  <si>
+    <t>西安中海凯旋门</t>
+  </si>
+  <si>
+    <t>西安中海悦墅</t>
+  </si>
+  <si>
+    <t>西安中海百贤府</t>
+  </si>
+  <si>
+    <t>西安中海国际社区铂宫</t>
+  </si>
+  <si>
+    <t>兰州中海河山郡东区</t>
+  </si>
+  <si>
+    <t>苏州双湾锦园管理处</t>
+  </si>
+  <si>
+    <t>深圳逸翠园</t>
+  </si>
+  <si>
+    <t>深圳湾畔</t>
+  </si>
+  <si>
+    <t>深圳康城花园一期</t>
+  </si>
+  <si>
+    <t>深圳康城花园（塞纳）</t>
+  </si>
+  <si>
+    <t>深圳尖岗山名苑</t>
+  </si>
+  <si>
+    <t>深圳共和世家</t>
+  </si>
+  <si>
+    <t>大连中海英伦观邸</t>
+  </si>
+  <si>
+    <t>大连中海天赋山</t>
+  </si>
+  <si>
+    <t>哈尔滨中海雍景熙岸管理处</t>
+  </si>
+  <si>
+    <t>惠州水岸城六七期管理处</t>
+  </si>
+  <si>
+    <t>惠州水岸城一期管理处</t>
+  </si>
+  <si>
+    <t>哈尔滨中海寰宇天下管理处</t>
+  </si>
+  <si>
+    <t>惠州凯旋城一期管理处</t>
+  </si>
+  <si>
+    <t>惠州凯旋城五六期管理处</t>
+  </si>
+  <si>
+    <t>惠州凯旋城二三期管理处</t>
+  </si>
+  <si>
+    <t>淡水中信新城B区管理处</t>
+  </si>
+  <si>
+    <t>重庆天赐龙都</t>
+  </si>
+  <si>
+    <t>惠州水岸城五期管理处</t>
+  </si>
+  <si>
+    <t>惠州水岸城二三期管理处</t>
+  </si>
+  <si>
+    <t>昆明中海.荟景花园</t>
+  </si>
+  <si>
+    <t>淡水中信新城C区管理处</t>
+  </si>
+  <si>
+    <t>重庆中信大厦</t>
+  </si>
+  <si>
+    <t>东莞凯旋国际花园管理处</t>
+  </si>
+  <si>
+    <t>东莞阳光小区管理处</t>
+  </si>
+  <si>
+    <t>东莞兰溪谷管理处</t>
+  </si>
+  <si>
+    <t>东莞塘厦凯旋城管理处</t>
+  </si>
+  <si>
+    <t>东莞御园管理处</t>
+  </si>
+  <si>
+    <t>东莞凯旋城管理处</t>
+  </si>
+  <si>
+    <t>东莞新天地管理处</t>
+  </si>
+  <si>
+    <t>东莞富春山居管理处</t>
+  </si>
+  <si>
+    <t>东莞东泰花园管理处</t>
+  </si>
+  <si>
+    <t>沈阳中海城央墅</t>
+  </si>
+  <si>
+    <t>沈阳中海城虹郡</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下盛京府</t>
+  </si>
+  <si>
+    <t>深圳中海商城</t>
+  </si>
+  <si>
+    <t>北京金石苑</t>
+  </si>
+  <si>
+    <t>北京中海奥南</t>
+  </si>
+  <si>
+    <t>北京中海金玉苑</t>
+  </si>
+  <si>
+    <t>深圳湾上六座</t>
+  </si>
+  <si>
+    <t>深圳高尔夫别墅</t>
+  </si>
+  <si>
+    <t>大连海港城</t>
+  </si>
+  <si>
+    <t>沈阳中海城塞尚</t>
+  </si>
+  <si>
+    <t>呼市中海凯旋门</t>
+  </si>
+  <si>
+    <t>呼市中海外滩</t>
+  </si>
+  <si>
+    <t>大连尚品南山</t>
+  </si>
+  <si>
+    <t>呼市中海蓝湾</t>
+  </si>
+  <si>
+    <t>沈阳中海城阿尔卑斯</t>
+  </si>
+  <si>
+    <t>大连和兴家园</t>
+  </si>
+  <si>
+    <t>太原寰宇天下</t>
+  </si>
+  <si>
+    <t>大连海天瀛洲</t>
+  </si>
+  <si>
+    <t>郑州中海锦苑</t>
+  </si>
+  <si>
+    <t>沈阳中海和平之门壹里</t>
+  </si>
+  <si>
+    <t>呼市中海银河天街</t>
+  </si>
+  <si>
+    <t>沈阳中海寰宇天下天成</t>
+  </si>
+  <si>
+    <t>沈阳中海城学府</t>
+  </si>
+  <si>
+    <t>佛山灯湖华府</t>
+  </si>
+  <si>
+    <t>南昌庐山桃花里</t>
+  </si>
+  <si>
+    <t>中山凯旋蓝岸</t>
+  </si>
+  <si>
+    <t>佛山山语湖别墅</t>
+  </si>
+  <si>
+    <t>佛山山语湖御湖</t>
+  </si>
+  <si>
+    <t>佛山金山湾</t>
+  </si>
+  <si>
+    <t>中山美景康城</t>
+  </si>
+  <si>
+    <t>中山中信左岸</t>
+  </si>
+  <si>
+    <t>常州凤凰熙岸花园管理处</t>
+  </si>
+  <si>
+    <t>上海溪岸澜庭</t>
+  </si>
+  <si>
+    <t>常州锦瓏湾花园管理处</t>
+  </si>
+  <si>
+    <t>常州中海龙城花园管理处</t>
+  </si>
+  <si>
+    <t>南通碧林湾花园管理处</t>
+  </si>
+  <si>
+    <t>南通上林院管理处</t>
+  </si>
+  <si>
+    <t>成都中信未来城管理处</t>
+  </si>
+  <si>
+    <t>成都中信城左岸管理处</t>
+  </si>
+  <si>
+    <t>成都中信城右岸管理处</t>
+  </si>
+  <si>
+    <t>成都云栖谷管理处</t>
+  </si>
+  <si>
+    <t>上海万锦城</t>
+  </si>
+  <si>
+    <t>烟台海悦府</t>
+  </si>
+  <si>
+    <t>深圳海文花园</t>
+  </si>
+  <si>
+    <t>中信森林湖琥珀洲</t>
+  </si>
+  <si>
+    <t>中信森林湖玛瑙屿</t>
+  </si>
+  <si>
+    <t>深圳海天一色</t>
+  </si>
+  <si>
+    <t>中信森林湖翡翠湾</t>
+  </si>
+  <si>
+    <t>淄博文昌湖海融海和苑</t>
+  </si>
+  <si>
+    <t>淄博文昌湖海博苑</t>
+  </si>
+  <si>
+    <t>上海紫御豪庭6B</t>
+  </si>
+  <si>
+    <t>深圳岸芷汀兰</t>
+  </si>
+  <si>
+    <t>深圳领航里程</t>
+  </si>
+  <si>
+    <t>苏州太湖论坛城管理处</t>
+  </si>
+  <si>
+    <t>无锡中海海悦花园A区管理处</t>
+  </si>
+  <si>
+    <t>无锡中海海悦花园B区管理处</t>
+  </si>
+  <si>
+    <t>合肥滨湖公馆</t>
+  </si>
+  <si>
+    <t>无锡中海凤凰璟园C区管理处</t>
+  </si>
+  <si>
+    <t>无锡中海凤凰璟园A2区管理处</t>
+  </si>
+  <si>
+    <t>扬州九玺园</t>
+  </si>
+  <si>
+    <t>海口台达国际</t>
+  </si>
+  <si>
+    <t>扬州运河丹堤</t>
+  </si>
+  <si>
+    <t>三亚南航大厦</t>
+  </si>
+  <si>
+    <t>盐城凯旋门</t>
+  </si>
+  <si>
+    <t>苏州中信太湖城·浩阁酒店式公寓</t>
+  </si>
+  <si>
+    <t>苏州栖湖名苑管理处</t>
+  </si>
+  <si>
+    <t>深圳红树湾花城</t>
+  </si>
+  <si>
+    <t>深圳中信大厦</t>
+  </si>
+  <si>
+    <t>深圳海滨花园</t>
+  </si>
+  <si>
+    <t>深圳龙盛广场</t>
+  </si>
+  <si>
+    <t>济南国社中央公馆北区</t>
+  </si>
+  <si>
+    <t>济南国社中央公馆南区</t>
+  </si>
+  <si>
+    <t>天津珺台</t>
+  </si>
+  <si>
+    <t>天津城市广场</t>
+  </si>
+  <si>
+    <t>天津公园里</t>
+  </si>
+  <si>
+    <t>汕头东厦花园</t>
+  </si>
+  <si>
+    <t>汕头东厦二期</t>
+  </si>
+  <si>
+    <t>汕头东厦三期</t>
+  </si>
+  <si>
+    <t>汕头帝豪花园</t>
+  </si>
+  <si>
+    <t>汕头东豪华府</t>
+  </si>
+  <si>
+    <t>汕头投资大厦</t>
+  </si>
+  <si>
+    <t>汕头长城花园</t>
+  </si>
+  <si>
+    <t>汕头春泽花园</t>
+  </si>
+  <si>
+    <t>汕头丰泽花园</t>
+  </si>
+  <si>
+    <t>汕头世贸花园</t>
+  </si>
+  <si>
+    <t>汕头蓝天花园</t>
+  </si>
+  <si>
+    <t>汕头华信花园</t>
+  </si>
+  <si>
+    <t>汕头华信苑</t>
+  </si>
+  <si>
+    <t>汕头蓝田花园</t>
+  </si>
+  <si>
+    <t>汕头华美花园</t>
+  </si>
+  <si>
+    <t>汕头中信大厦</t>
+  </si>
+  <si>
+    <t>汕头华美大厦</t>
+  </si>
+  <si>
+    <t>汕头信华大厦</t>
+  </si>
+  <si>
+    <t>汕头金信大厦</t>
+  </si>
+  <si>
+    <t>汕头建信大厦</t>
+  </si>
+  <si>
+    <t>汕头龙眼园</t>
+  </si>
+  <si>
+    <t>汕头海滨东区</t>
+  </si>
+  <si>
+    <t>汕头海滨西区</t>
+  </si>
+  <si>
+    <t>长沙梅溪湖壹号二期</t>
+  </si>
+  <si>
+    <t>汕头黄金海岸</t>
+  </si>
+  <si>
+    <t>长沙国社中区五期</t>
+  </si>
+  <si>
+    <t>汕头环碧花园</t>
+  </si>
+  <si>
+    <t>长沙中信城市广场</t>
+  </si>
+  <si>
+    <t>汕头金杏花园</t>
+  </si>
+  <si>
+    <t>长沙中信新城文化广场</t>
+  </si>
+  <si>
+    <t>汕头智汇时代</t>
+  </si>
+  <si>
+    <t>长沙中信凯旋蓝岸</t>
+  </si>
+  <si>
+    <t>汕头澄海中信金城</t>
+  </si>
+  <si>
+    <t>长沙中信新城凯旋城</t>
+  </si>
+  <si>
+    <t>吉林紫御东郡</t>
+  </si>
+  <si>
+    <t>普宁中信华府管</t>
+  </si>
+  <si>
+    <t>吉林国社原山管理处</t>
+  </si>
+  <si>
+    <t>广州金沙馨园</t>
+  </si>
+  <si>
+    <t>福州寰宇天下</t>
+  </si>
+  <si>
+    <t>广州花城湾</t>
+  </si>
+  <si>
+    <t>广州璟晖华庭</t>
+  </si>
+  <si>
+    <t>广州中海名都</t>
+  </si>
+  <si>
+    <t>武汉琴台华府</t>
+  </si>
+  <si>
+    <t>珠海中海名钻</t>
+  </si>
+  <si>
+    <t>厦门寰宇天下</t>
+  </si>
+  <si>
+    <t>厦门锦城国际</t>
+  </si>
+  <si>
+    <t>广州锦城南苑</t>
+  </si>
+  <si>
+    <t>广州中海橡园</t>
+  </si>
+  <si>
+    <t>广州锦城花园</t>
+  </si>
+  <si>
+    <t>广州誉东花园</t>
+  </si>
+  <si>
+    <t>广州誉品花园</t>
+  </si>
+  <si>
+    <t>武汉万锦江城</t>
+  </si>
+  <si>
+    <t>珠海银海湾</t>
+  </si>
+  <si>
+    <t>长沙国社一期</t>
+  </si>
+  <si>
+    <t>长沙国社二期</t>
+  </si>
+  <si>
+    <t>长沙国社西区三期</t>
+  </si>
+  <si>
+    <t>长沙梅溪湖壹号三期</t>
+  </si>
+  <si>
+    <t>广州中信丽水华庭</t>
+  </si>
+  <si>
+    <t>广州中信君庭</t>
+  </si>
+  <si>
+    <t>广州中信香樟墅</t>
+  </si>
+  <si>
+    <t>广州中信西关海</t>
+  </si>
+  <si>
+    <t>厦门万锦熙岸</t>
+  </si>
+  <si>
+    <t>珠海富华里</t>
+  </si>
+  <si>
+    <t>珠海中信红树湾</t>
+  </si>
+  <si>
+    <t>汕头怀英花园</t>
+  </si>
+  <si>
+    <t>杭州御道路一号二区</t>
+  </si>
+  <si>
+    <t>汕头中滨江熙岸雅园</t>
+  </si>
+  <si>
+    <t>重庆国际社区首钻</t>
+  </si>
+  <si>
+    <t>北京延秋园管理处</t>
+  </si>
+  <si>
+    <t>常州中海龙城花园</t>
+  </si>
+  <si>
+    <t>北京中信墅管理处</t>
+  </si>
+  <si>
+    <t>北京锦园管理处</t>
+  </si>
+  <si>
+    <t>北京沁园管理处</t>
+  </si>
+  <si>
+    <t>北京禧园管理处</t>
+  </si>
+  <si>
+    <t>佛山金沙湾东区</t>
+  </si>
+  <si>
+    <t>佛山金沙湾中区</t>
+  </si>
+  <si>
+    <t>北京新城商品房管理处</t>
+  </si>
+  <si>
+    <t>北京新城保障房管理处</t>
+  </si>
+  <si>
+    <t>汕头金涛小区</t>
+  </si>
+  <si>
+    <t>汕头丹阳花园</t>
+  </si>
+  <si>
+    <t>北京波普公社管理处</t>
+  </si>
+  <si>
+    <t>北京智地普惠管理处</t>
+  </si>
+  <si>
+    <t>北京琥珀天地管理处</t>
+  </si>
+  <si>
+    <t>呼市中海御龙湾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,11 +1523,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -343,25 +1804,2429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="C1:C482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="27.1640625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>111111111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C402" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C403" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C404" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C405" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C406" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C407" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C408" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C409" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C410" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C411" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C412" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C413" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C414" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C415" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C416" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C426" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C427" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C428" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C433" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C434" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C435" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C436" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C437" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C438" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C439" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C440" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C441" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C442" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C443" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C444" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C445" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C446" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C447" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C448" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C449" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C450" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C451" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C452" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C453" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C454" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C455" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C456" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C457" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C458" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C459" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C460" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C461" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C462" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C463" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C464" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C465" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C466" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C467" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C468" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C469" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C470" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C471" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C472" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C473" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C474" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C475" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C476" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C477" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C478" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C479" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C480" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C481" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C482" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -374,6 +4239,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -382,16 +4248,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>